--- a/significance_encodings/SSListSenate.xlsx
+++ b/significance_encodings/SSListSenate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wisemaae\Dropbox\desktop_backup\research\LEP_clean_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizzi\congress\data\significance_encodings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506AA82F-44F7-4034-A593-707E78145581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF086AC3-6D8F-4660-93DE-AC3D6E4ACCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27540" yWindow="420" windowWidth="13380" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="3">
   <si>
     <t>93rd Senate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>sjres</t>
   </si>
 </sst>
 </file>
@@ -413,16 +410,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="N52" workbookViewId="0">
+      <selection activeCell="AC68" sqref="AC68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -588,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -671,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -754,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -837,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -920,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1252,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>32</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>33</v>
       </c>
@@ -1667,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>36</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1833,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>38</v>
       </c>
@@ -1916,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>39</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>40</v>
       </c>
@@ -2082,7 +2079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>49</v>
       </c>
@@ -2165,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>50</v>
       </c>
@@ -2248,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>59</v>
       </c>
@@ -2331,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>70</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>100</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>151</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>158</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>210</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>268</v>
       </c>
@@ -2799,7 +2796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>271</v>
       </c>
@@ -2876,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>284</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>287</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>294</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>300</v>
       </c>
@@ -3184,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>316</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>318</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>352</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>354</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>355</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>356</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>367</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>371</v>
       </c>
@@ -3800,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>372</v>
       </c>
@@ -3877,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>373</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>386</v>
       </c>
@@ -4031,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>394</v>
       </c>
@@ -4108,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>398</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>411</v>
       </c>
@@ -4260,7 +4257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>417</v>
       </c>
@@ -4332,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>424</v>
       </c>
@@ -4404,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>425</v>
       </c>
@@ -4476,7 +4473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>426</v>
       </c>
@@ -4548,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>433</v>
       </c>
@@ -4620,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>440</v>
       </c>
@@ -4692,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>444</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>470</v>
       </c>
@@ -4836,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>472</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>498</v>
       </c>
@@ -4978,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>502</v>
       </c>
@@ -5048,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>504</v>
       </c>
@@ -5111,14 +5108,8 @@
         <v>1627</v>
       </c>
       <c r="W60" s="2"/>
-      <c r="Z60">
-        <v>9</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>517</v>
       </c>
@@ -5181,14 +5172,8 @@
         <v>1631</v>
       </c>
       <c r="W61" s="2"/>
-      <c r="Z61">
-        <v>11</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>518</v>
       </c>
@@ -5251,14 +5236,8 @@
         <v>1670</v>
       </c>
       <c r="W62" s="2"/>
-      <c r="Z62">
-        <v>18</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>544</v>
       </c>
@@ -5321,14 +5300,8 @@
         <v>1681</v>
       </c>
       <c r="W63" s="2"/>
-      <c r="Z63">
-        <v>23</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>583</v>
       </c>
@@ -5389,14 +5362,8 @@
         <v>1696</v>
       </c>
       <c r="W64" s="2"/>
-      <c r="Z64">
-        <v>24</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>585</v>
       </c>
@@ -5457,14 +5424,8 @@
         <v>1720</v>
       </c>
       <c r="W65" s="2"/>
-      <c r="Z65">
-        <v>32</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>590</v>
       </c>
@@ -5525,14 +5486,8 @@
         <v>1807</v>
       </c>
       <c r="W66" s="2"/>
-      <c r="Z66">
-        <v>38</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>596</v>
       </c>
@@ -5593,14 +5548,8 @@
         <v>1845</v>
       </c>
       <c r="W67" s="2"/>
-      <c r="Z67">
-        <v>43</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>597</v>
       </c>
@@ -5661,14 +5610,8 @@
         <v>1857</v>
       </c>
       <c r="W68" s="2"/>
-      <c r="Z68">
-        <v>57</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>603</v>
       </c>
@@ -5729,14 +5672,8 @@
         <v>1871</v>
       </c>
       <c r="W69" s="2"/>
-      <c r="Z69">
-        <v>58</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>606</v>
       </c>
@@ -5797,14 +5734,8 @@
         <v>1875</v>
       </c>
       <c r="W70" s="2"/>
-      <c r="Z70">
-        <v>61</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>607</v>
       </c>
@@ -5865,14 +5796,8 @@
         <v>1881</v>
       </c>
       <c r="W71" s="2"/>
-      <c r="Z71">
-        <v>62</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>663</v>
       </c>
@@ -5933,14 +5858,8 @@
         <v>1900</v>
       </c>
       <c r="W72" s="2"/>
-      <c r="Z72">
-        <v>83</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>707</v>
       </c>
@@ -6001,14 +5920,8 @@
         <v>2000</v>
       </c>
       <c r="W73" s="2"/>
-      <c r="Z73">
-        <v>89</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>723</v>
       </c>
@@ -6070,7 +5983,7 @@
       </c>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>754</v>
       </c>
@@ -6132,7 +6045,7 @@
       </c>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>755</v>
       </c>
@@ -6194,7 +6107,7 @@
       </c>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>775</v>
       </c>
@@ -6256,7 +6169,7 @@
       </c>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>782</v>
       </c>
@@ -6318,7 +6231,7 @@
       </c>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>795</v>
       </c>
@@ -6380,7 +6293,7 @@
       </c>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>798</v>
       </c>
@@ -6442,7 +6355,7 @@
       </c>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>800</v>
       </c>
@@ -6504,7 +6417,7 @@
       </c>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>804</v>
       </c>
@@ -6566,7 +6479,7 @@
       </c>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>821</v>
       </c>
@@ -6628,7 +6541,7 @@
       </c>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>837</v>
       </c>
@@ -6690,7 +6603,7 @@
       </c>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>863</v>
       </c>
@@ -6752,7 +6665,7 @@
       </c>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>870</v>
       </c>
@@ -6814,7 +6727,7 @@
       </c>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>872</v>
       </c>
@@ -6874,7 +6787,7 @@
       </c>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>873</v>
       </c>
@@ -6932,7 +6845,7 @@
       </c>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>893</v>
       </c>
@@ -6990,7 +6903,7 @@
       </c>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>896</v>
       </c>
@@ -7048,7 +6961,7 @@
       </c>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>905</v>
       </c>
@@ -7106,7 +7019,7 @@
       </c>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>914</v>
       </c>
@@ -7165,7 +7078,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>915</v>
       </c>
@@ -7224,7 +7137,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>916</v>
       </c>
@@ -7283,7 +7196,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>917</v>
       </c>
@@ -7342,7 +7255,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>921</v>
       </c>
@@ -7401,7 +7314,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>923</v>
       </c>
@@ -7460,7 +7373,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>925</v>
       </c>
@@ -7519,7 +7432,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>929</v>
       </c>
@@ -7578,7 +7491,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>935</v>
       </c>
@@ -7635,7 +7548,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>966</v>
       </c>
@@ -7692,7 +7605,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>972</v>
       </c>
@@ -7749,7 +7662,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>974</v>
       </c>
@@ -7806,7 +7719,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>978</v>
       </c>
@@ -7863,7 +7776,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1010</v>
       </c>
@@ -7920,7 +7833,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1017</v>
       </c>
@@ -7977,7 +7890,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1021</v>
       </c>
@@ -8034,7 +7947,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1033</v>
       </c>
@@ -8091,7 +8004,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1040</v>
       </c>
@@ -8148,7 +8061,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1041</v>
       </c>
@@ -8205,7 +8118,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1052</v>
       </c>
@@ -8262,7 +8175,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1064</v>
       </c>
@@ -8319,7 +8232,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1070</v>
       </c>
@@ -8376,7 +8289,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1081</v>
       </c>
@@ -8433,7 +8346,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1083</v>
       </c>
@@ -8490,7 +8403,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1090</v>
       </c>
@@ -8547,7 +8460,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1100</v>
       </c>
@@ -8604,7 +8517,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1103</v>
       </c>
@@ -8659,7 +8572,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1106</v>
       </c>
@@ -8714,7 +8627,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1109</v>
       </c>
@@ -8769,7 +8682,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1113</v>
       </c>
@@ -8824,7 +8737,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1115</v>
       </c>
@@ -8879,7 +8792,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1125</v>
       </c>
@@ -8934,7 +8847,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1128</v>
       </c>
@@ -8989,7 +8902,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1134</v>
       </c>
@@ -9044,7 +8957,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1136</v>
       </c>
@@ -9099,7 +9012,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1141</v>
       </c>
@@ -9154,7 +9067,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1148</v>
       </c>
@@ -9207,7 +9120,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1149</v>
       </c>
@@ -9260,7 +9173,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1160</v>
       </c>
@@ -9313,7 +9226,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1165</v>
       </c>
@@ -9366,7 +9279,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1167</v>
       </c>
@@ -9419,7 +9332,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1179</v>
       </c>
@@ -9472,7 +9385,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1191</v>
       </c>
@@ -9525,7 +9438,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1201</v>
       </c>
@@ -9578,7 +9491,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1234</v>
       </c>
@@ -9631,7 +9544,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1248</v>
       </c>
@@ -9684,7 +9597,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1264</v>
       </c>
@@ -9737,7 +9650,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1272</v>
       </c>
@@ -9790,7 +9703,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1283</v>
       </c>
@@ -9843,7 +9756,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1296</v>
       </c>
@@ -9896,7 +9809,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1314</v>
       </c>
@@ -9949,7 +9862,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1315</v>
       </c>
@@ -10002,7 +9915,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1317</v>
       </c>
@@ -10055,7 +9968,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1319</v>
       </c>
@@ -10108,7 +10021,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1328</v>
       </c>
@@ -10161,7 +10074,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1341</v>
       </c>
@@ -10214,7 +10127,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1351</v>
       </c>
@@ -10267,7 +10180,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1361</v>
       </c>
@@ -10320,7 +10233,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1379</v>
       </c>
@@ -10373,7 +10286,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1385</v>
       </c>
@@ -10426,7 +10339,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1386</v>
       </c>
@@ -10479,7 +10392,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1400</v>
       </c>
@@ -10532,7 +10445,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1401</v>
       </c>
@@ -10585,7 +10498,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1410</v>
       </c>
@@ -10638,7 +10551,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1416</v>
       </c>
@@ -10691,7 +10604,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1423</v>
       </c>
@@ -10744,7 +10657,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1435</v>
       </c>
@@ -10797,7 +10710,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1443</v>
       </c>
@@ -10850,7 +10763,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1472</v>
       </c>
@@ -10903,7 +10816,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1486</v>
       </c>
@@ -10956,7 +10869,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1501</v>
       </c>
@@ -11009,7 +10922,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1539</v>
       </c>
@@ -11062,7 +10975,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1541</v>
       </c>
@@ -11115,7 +11028,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1559</v>
       </c>
@@ -11168,7 +11081,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1560</v>
       </c>
@@ -11221,7 +11134,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1566</v>
       </c>
@@ -11274,7 +11187,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1570</v>
       </c>
@@ -11327,7 +11240,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1586</v>
       </c>
@@ -11380,7 +11293,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1630</v>
       </c>
@@ -11433,7 +11346,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1636</v>
       </c>
@@ -11486,7 +11399,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1641</v>
       </c>
@@ -11537,7 +11450,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1647</v>
       </c>
@@ -11588,7 +11501,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1672</v>
       </c>
@@ -11639,7 +11552,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1688</v>
       </c>
@@ -11690,7 +11603,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1694</v>
       </c>
@@ -11741,7 +11654,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1711</v>
       </c>
@@ -11792,7 +11705,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1724</v>
       </c>
@@ -11843,7 +11756,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1733</v>
       </c>
@@ -11894,7 +11807,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1743</v>
       </c>
@@ -11945,7 +11858,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1744</v>
       </c>
@@ -11996,7 +11909,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1745</v>
       </c>
@@ -12047,7 +11960,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1751</v>
       </c>
@@ -12098,7 +12011,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1752</v>
       </c>
@@ -12149,7 +12062,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1759</v>
       </c>
@@ -12200,7 +12113,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1769</v>
       </c>
@@ -12251,7 +12164,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1775</v>
       </c>
@@ -12302,7 +12215,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1776</v>
       </c>
@@ -12353,7 +12266,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1815</v>
       </c>
@@ -12404,7 +12317,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1828</v>
       </c>
@@ -12455,7 +12368,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1841</v>
       </c>
@@ -12506,7 +12419,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1849</v>
       </c>
@@ -12555,7 +12468,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1861</v>
       </c>
@@ -12604,7 +12517,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1866</v>
       </c>
@@ -12653,7 +12566,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1868</v>
       </c>
@@ -12702,7 +12615,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1871</v>
       </c>
@@ -12751,7 +12664,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1875</v>
       </c>
@@ -12800,7 +12713,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1881</v>
       </c>
@@ -12849,7 +12762,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1884</v>
       </c>
@@ -12898,7 +12811,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1888</v>
       </c>
@@ -12947,7 +12860,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1903</v>
       </c>
@@ -12996,7 +12909,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1914</v>
       </c>
@@ -13045,7 +12958,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1916</v>
       </c>
@@ -13092,7 +13005,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1925</v>
       </c>
@@ -13139,7 +13052,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1933</v>
       </c>
@@ -13186,7 +13099,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1938</v>
       </c>
@@ -13233,7 +13146,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1939</v>
       </c>
@@ -13280,7 +13193,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1951</v>
       </c>
@@ -13327,7 +13240,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1954</v>
       </c>
@@ -13374,7 +13287,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1972</v>
       </c>
@@ -13421,7 +13334,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1977</v>
       </c>
@@ -13468,7 +13381,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1983</v>
       </c>
@@ -13515,7 +13428,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1988</v>
       </c>
@@ -13562,7 +13475,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1989</v>
       </c>
@@ -13609,7 +13522,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1994</v>
       </c>
@@ -13656,7 +13569,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2016</v>
       </c>
@@ -13703,7 +13616,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2045</v>
       </c>
@@ -13750,7 +13663,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2047</v>
       </c>
@@ -13797,7 +13710,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2048</v>
       </c>
@@ -13844,7 +13757,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2058</v>
       </c>
@@ -13891,7 +13804,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2060</v>
       </c>
@@ -13938,7 +13851,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2062</v>
       </c>
@@ -13985,7 +13898,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2067</v>
       </c>
@@ -14032,7 +13945,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2071</v>
       </c>
@@ -14079,7 +13992,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2072</v>
       </c>
@@ -14126,7 +14039,7 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2075</v>
       </c>
@@ -14173,7 +14086,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2089</v>
       </c>
@@ -14220,7 +14133,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2101</v>
       </c>
@@ -14267,7 +14180,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2106</v>
       </c>
@@ -14314,7 +14227,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2120</v>
       </c>
@@ -14359,7 +14272,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2135</v>
       </c>
@@ -14404,7 +14317,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2166</v>
       </c>
@@ -14449,7 +14362,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2176</v>
       </c>
@@ -14494,7 +14407,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2182</v>
       </c>
@@ -14539,7 +14452,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2188</v>
       </c>
@@ -14584,7 +14497,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2193</v>
       </c>
@@ -14629,7 +14542,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2228</v>
       </c>
@@ -14674,7 +14587,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2238</v>
       </c>
@@ -14719,7 +14632,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2239</v>
       </c>
@@ -14764,7 +14677,7 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2288</v>
       </c>
@@ -14809,7 +14722,7 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2297</v>
       </c>
@@ -14854,7 +14767,7 @@
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2316</v>
       </c>
@@ -14899,7 +14812,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2335</v>
       </c>
@@ -14944,7 +14857,7 @@
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2339</v>
       </c>
@@ -14989,7 +14902,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2360</v>
       </c>
@@ -15034,7 +14947,7 @@
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2373</v>
       </c>
@@ -15079,7 +14992,7 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2408</v>
       </c>
@@ -15124,7 +15037,7 @@
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2410</v>
       </c>
@@ -15169,7 +15082,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2413</v>
       </c>
@@ -15214,7 +15127,7 @@
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2417</v>
       </c>
@@ -15259,7 +15172,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2432</v>
       </c>
@@ -15304,7 +15217,7 @@
       <c r="V251" s="2"/>
       <c r="W251" s="2"/>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2439</v>
       </c>
@@ -15349,7 +15262,7 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2465</v>
       </c>
@@ -15394,7 +15307,7 @@
       <c r="V253" s="2"/>
       <c r="W253" s="2"/>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2474</v>
       </c>
@@ -15439,7 +15352,7 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2482</v>
       </c>
@@ -15484,7 +15397,7 @@
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2487</v>
       </c>
@@ -15529,7 +15442,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2490</v>
       </c>
@@ -15574,7 +15487,7 @@
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2491</v>
       </c>
@@ -15619,7 +15532,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2493</v>
       </c>
@@ -15664,7 +15577,7 @@
       <c r="V259" s="2"/>
       <c r="W259" s="2"/>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2498</v>
       </c>
@@ -15709,7 +15622,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2506</v>
       </c>
@@ -15754,7 +15667,7 @@
       <c r="V261" s="2"/>
       <c r="W261" s="2"/>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2507</v>
       </c>
@@ -15799,7 +15712,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2510</v>
       </c>
@@ -15844,7 +15757,7 @@
       <c r="V263" s="2"/>
       <c r="W263" s="2"/>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2513</v>
       </c>
@@ -15889,7 +15802,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2519</v>
       </c>
@@ -15934,7 +15847,7 @@
       <c r="V265" s="2"/>
       <c r="W265" s="2"/>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2543</v>
       </c>
@@ -15979,7 +15892,7 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2551</v>
       </c>
@@ -16024,7 +15937,7 @@
       <c r="V267" s="2"/>
       <c r="W267" s="2"/>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2555</v>
       </c>
@@ -16069,7 +15982,7 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2581</v>
       </c>
@@ -16114,7 +16027,7 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2589</v>
       </c>
@@ -16159,7 +16072,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2619</v>
       </c>
@@ -16204,7 +16117,7 @@
       <c r="V271" s="2"/>
       <c r="W271" s="2"/>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2645</v>
       </c>
@@ -16249,7 +16162,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2651</v>
       </c>
@@ -16294,7 +16207,7 @@
       <c r="V273" s="2"/>
       <c r="W273" s="2"/>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2665</v>
       </c>
@@ -16339,7 +16252,7 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2673</v>
       </c>
@@ -16384,7 +16297,7 @@
       <c r="V275" s="2"/>
       <c r="W275" s="2"/>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2680</v>
       </c>
@@ -16429,7 +16342,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2681</v>
       </c>
@@ -16474,7 +16387,7 @@
       <c r="V277" s="2"/>
       <c r="W277" s="2"/>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>2686</v>
       </c>
@@ -16519,7 +16432,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2702</v>
       </c>
@@ -16564,7 +16477,7 @@
       <c r="V279" s="2"/>
       <c r="W279" s="2"/>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>2743</v>
       </c>
@@ -16609,7 +16522,7 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>2744</v>
       </c>
@@ -16654,7 +16567,7 @@
       <c r="V281" s="2"/>
       <c r="W281" s="2"/>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>2747</v>
       </c>
@@ -16699,7 +16612,7 @@
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>2754</v>
       </c>
@@ -16744,7 +16657,7 @@
       <c r="V283" s="2"/>
       <c r="W283" s="2"/>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>2767</v>
       </c>
@@ -16789,7 +16702,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>2770</v>
       </c>
@@ -16832,7 +16745,7 @@
       <c r="V285" s="2"/>
       <c r="W285" s="2"/>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>2771</v>
       </c>
@@ -16875,7 +16788,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>2772</v>
       </c>
@@ -16918,7 +16831,7 @@
       <c r="V287" s="2"/>
       <c r="W287" s="2"/>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>2776</v>
       </c>
@@ -16961,7 +16874,7 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2784</v>
       </c>
@@ -17004,7 +16917,7 @@
       <c r="V289" s="2"/>
       <c r="W289" s="2"/>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2792</v>
       </c>
@@ -17047,7 +16960,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>2794</v>
       </c>
@@ -17090,7 +17003,7 @@
       <c r="V291" s="2"/>
       <c r="W291" s="2"/>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>2798</v>
       </c>
@@ -17131,7 +17044,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>2812</v>
       </c>
@@ -17172,7 +17085,7 @@
       <c r="V293" s="2"/>
       <c r="W293" s="2"/>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>2830</v>
       </c>
@@ -17213,7 +17126,7 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>2840</v>
       </c>
@@ -17254,7 +17167,7 @@
       <c r="V295" s="2"/>
       <c r="W295" s="2"/>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>2844</v>
       </c>
@@ -17295,7 +17208,7 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>2846</v>
       </c>
@@ -17336,7 +17249,7 @@
       <c r="V297" s="2"/>
       <c r="W297" s="2"/>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>2848</v>
       </c>
@@ -17377,7 +17290,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>2854</v>
       </c>
@@ -17418,7 +17331,7 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>2868</v>
       </c>
@@ -17459,7 +17372,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>2893</v>
       </c>
@@ -17500,7 +17413,7 @@
       <c r="V301" s="2"/>
       <c r="W301" s="2"/>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>2904</v>
       </c>
@@ -17541,7 +17454,7 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2928</v>
       </c>
@@ -17582,7 +17495,7 @@
       <c r="V303" s="2"/>
       <c r="W303" s="2"/>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>2938</v>
       </c>
@@ -17623,7 +17536,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>2940</v>
       </c>
@@ -17664,7 +17577,7 @@
       <c r="V305" s="2"/>
       <c r="W305" s="2"/>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>2957</v>
       </c>
@@ -17701,7 +17614,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>2966</v>
       </c>
@@ -17738,7 +17651,7 @@
       <c r="V307" s="2"/>
       <c r="W307" s="2"/>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>2970</v>
       </c>
@@ -17773,7 +17686,7 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>2986</v>
       </c>
@@ -17806,7 +17719,7 @@
       <c r="V309" s="2"/>
       <c r="W309" s="2"/>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>2993</v>
       </c>
@@ -17839,7 +17752,7 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>2994</v>
       </c>
@@ -17870,7 +17783,7 @@
       <c r="V311" s="2"/>
       <c r="W311" s="2"/>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>2999</v>
       </c>
@@ -17901,7 +17814,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>3000</v>
       </c>
@@ -17932,7 +17845,7 @@
       <c r="V313" s="2"/>
       <c r="W313" s="2"/>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>3007</v>
       </c>
@@ -17961,7 +17874,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>3009</v>
       </c>
@@ -17990,7 +17903,7 @@
       <c r="V315" s="2"/>
       <c r="W315" s="2"/>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>3011</v>
       </c>
@@ -18019,7 +17932,7 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>3012</v>
       </c>
@@ -18048,7 +17961,7 @@
       <c r="V317" s="2"/>
       <c r="W317" s="2"/>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>3032</v>
       </c>
@@ -18077,7 +17990,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="2"/>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>3035</v>
       </c>
@@ -18106,7 +18019,7 @@
       <c r="V319" s="2"/>
       <c r="W319" s="2"/>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>3044</v>
       </c>
@@ -18135,7 +18048,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="2"/>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>3052</v>
       </c>
@@ -18164,7 +18077,7 @@
       <c r="V321" s="2"/>
       <c r="W321" s="2"/>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>3057</v>
       </c>
@@ -18193,7 +18106,7 @@
       <c r="V322" s="2"/>
       <c r="W322" s="2"/>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>3062</v>
       </c>
@@ -18222,7 +18135,7 @@
       <c r="V323" s="2"/>
       <c r="W323" s="2"/>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>3066</v>
       </c>
@@ -18251,7 +18164,7 @@
       <c r="V324" s="2"/>
       <c r="W324" s="2"/>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>3072</v>
       </c>
@@ -18280,7 +18193,7 @@
       <c r="V325" s="2"/>
       <c r="W325" s="2"/>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>3108</v>
       </c>
@@ -18309,7 +18222,7 @@
       <c r="V326" s="2"/>
       <c r="W326" s="2"/>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>3126</v>
       </c>
@@ -18338,7 +18251,7 @@
       <c r="V327" s="2"/>
       <c r="W327" s="2"/>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>3164</v>
       </c>
@@ -18367,7 +18280,7 @@
       <c r="V328" s="2"/>
       <c r="W328" s="2"/>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>3190</v>
       </c>
@@ -18394,7 +18307,7 @@
       <c r="V329" s="2"/>
       <c r="W329" s="2"/>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>3202</v>
       </c>
@@ -18421,7 +18334,7 @@
       <c r="V330" s="2"/>
       <c r="W330" s="2"/>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>3203</v>
       </c>
@@ -18448,7 +18361,7 @@
       <c r="V331" s="2"/>
       <c r="W331" s="2"/>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>3209</v>
       </c>
@@ -18475,7 +18388,7 @@
       <c r="V332" s="2"/>
       <c r="W332" s="2"/>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>3221</v>
       </c>
@@ -18502,7 +18415,7 @@
       <c r="V333" s="2"/>
       <c r="W333" s="2"/>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>3231</v>
       </c>
@@ -18529,7 +18442,7 @@
       <c r="V334" s="2"/>
       <c r="W334" s="2"/>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>3232</v>
       </c>
@@ -18556,7 +18469,7 @@
       <c r="V335" s="2"/>
       <c r="W335" s="2"/>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>3234</v>
       </c>
@@ -18583,7 +18496,7 @@
       <c r="V336" s="2"/>
       <c r="W336" s="2"/>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>3257</v>
       </c>
@@ -18610,7 +18523,7 @@
       <c r="V337" s="2"/>
       <c r="W337" s="2"/>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>3265</v>
       </c>
@@ -18637,7 +18550,7 @@
       <c r="V338" s="2"/>
       <c r="W338" s="2"/>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>3267</v>
       </c>
@@ -18664,7 +18577,7 @@
       <c r="V339" s="2"/>
       <c r="W339" s="2"/>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>3270</v>
       </c>
@@ -18691,7 +18604,7 @@
       <c r="V340" s="2"/>
       <c r="W340" s="2"/>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>3280</v>
       </c>
@@ -18718,7 +18631,7 @@
       <c r="V341" s="2"/>
       <c r="W341" s="2"/>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>3286</v>
       </c>
@@ -18745,7 +18658,7 @@
       <c r="V342" s="2"/>
       <c r="W342" s="2"/>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>3292</v>
       </c>
@@ -18772,7 +18685,7 @@
       <c r="V343" s="2"/>
       <c r="W343" s="2"/>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>3311</v>
       </c>
@@ -18799,7 +18712,7 @@
       <c r="V344" s="2"/>
       <c r="W344" s="2"/>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>3331</v>
       </c>
@@ -18826,7 +18739,7 @@
       <c r="V345" s="2"/>
       <c r="W345" s="2"/>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>3341</v>
       </c>
@@ -18853,7 +18766,7 @@
       <c r="V346" s="2"/>
       <c r="W346" s="2"/>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>3344</v>
       </c>
@@ -18880,7 +18793,7 @@
       <c r="V347" s="2"/>
       <c r="W347" s="2"/>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>3353</v>
       </c>
@@ -18907,7 +18820,7 @@
       <c r="V348" s="2"/>
       <c r="W348" s="2"/>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>3355</v>
       </c>
@@ -18934,7 +18847,7 @@
       <c r="V349" s="2"/>
       <c r="W349" s="2"/>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>3362</v>
       </c>
@@ -18961,7 +18874,7 @@
       <c r="V350" s="2"/>
       <c r="W350" s="2"/>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>3378</v>
       </c>
@@ -18988,7 +18901,7 @@
       <c r="V351" s="2"/>
       <c r="W351" s="2"/>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>3394</v>
       </c>
@@ -19015,7 +18928,7 @@
       <c r="V352" s="2"/>
       <c r="W352" s="2"/>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>3398</v>
       </c>
@@ -19042,7 +18955,7 @@
       <c r="V353" s="2"/>
       <c r="W353" s="2"/>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>3433</v>
       </c>
@@ -19069,7 +18982,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="2"/>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>3441</v>
       </c>
@@ -19096,7 +19009,7 @@
       <c r="V355" s="2"/>
       <c r="W355" s="2"/>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>3458</v>
       </c>
@@ -19123,7 +19036,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="2"/>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>3459</v>
       </c>
@@ -19150,7 +19063,7 @@
       <c r="V357" s="2"/>
       <c r="W357" s="2"/>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>3473</v>
       </c>
@@ -19177,7 +19090,7 @@
       <c r="V358" s="2"/>
       <c r="W358" s="2"/>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>3475</v>
       </c>
@@ -19204,7 +19117,7 @@
       <c r="V359" s="2"/>
       <c r="W359" s="2"/>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>3481</v>
       </c>
@@ -19231,7 +19144,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="2"/>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>3500</v>
       </c>
@@ -19258,7 +19171,7 @@
       <c r="V361" s="2"/>
       <c r="W361" s="2"/>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>3511</v>
       </c>
@@ -19285,7 +19198,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="2"/>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>3523</v>
       </c>
@@ -19312,7 +19225,7 @@
       <c r="V363" s="2"/>
       <c r="W363" s="2"/>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>3528</v>
       </c>
@@ -19339,7 +19252,7 @@
       <c r="V364" s="2"/>
       <c r="W364" s="2"/>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>3537</v>
       </c>
@@ -19366,7 +19279,7 @@
       <c r="V365" s="2"/>
       <c r="W365" s="2"/>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>3569</v>
       </c>
@@ -19393,7 +19306,7 @@
       <c r="V366" s="2"/>
       <c r="W366" s="2"/>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>3585</v>
       </c>
@@ -19420,7 +19333,7 @@
       <c r="V367" s="2"/>
       <c r="W367" s="2"/>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>3586</v>
       </c>
@@ -19447,7 +19360,7 @@
       <c r="V368" s="2"/>
       <c r="W368" s="2"/>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>3620</v>
       </c>
@@ -19474,7 +19387,7 @@
       <c r="V369" s="2"/>
       <c r="W369" s="2"/>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>3639</v>
       </c>
@@ -19501,7 +19414,7 @@
       <c r="V370" s="2"/>
       <c r="W370" s="2"/>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>3641</v>
       </c>
@@ -19528,7 +19441,7 @@
       <c r="V371" s="2"/>
       <c r="W371" s="2"/>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>3647</v>
       </c>
@@ -19555,7 +19468,7 @@
       <c r="V372" s="2"/>
       <c r="W372" s="2"/>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>3669</v>
       </c>
@@ -19582,7 +19495,7 @@
       <c r="V373" s="2"/>
       <c r="W373" s="2"/>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>3679</v>
       </c>
@@ -19609,7 +19522,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="2"/>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>3698</v>
       </c>
@@ -19636,7 +19549,7 @@
       <c r="V375" s="2"/>
       <c r="W375" s="2"/>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>3699</v>
       </c>
@@ -19663,7 +19576,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="2"/>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>3713</v>
       </c>
@@ -19690,7 +19603,7 @@
       <c r="V377" s="2"/>
       <c r="W377" s="2"/>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>3717</v>
       </c>
@@ -19717,7 +19630,7 @@
       <c r="V378" s="2"/>
       <c r="W378" s="2"/>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>3782</v>
       </c>
@@ -19744,7 +19657,7 @@
       <c r="V379" s="2"/>
       <c r="W379" s="2"/>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>3792</v>
       </c>
@@ -19771,7 +19684,7 @@
       <c r="V380" s="2"/>
       <c r="W380" s="2"/>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>3802</v>
       </c>
@@ -19798,7 +19711,7 @@
       <c r="V381" s="2"/>
       <c r="W381" s="2"/>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>3817</v>
       </c>
@@ -19825,7 +19738,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="2"/>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>3825</v>
       </c>
@@ -19852,7 +19765,7 @@
       <c r="V383" s="2"/>
       <c r="W383" s="2"/>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>3830</v>
       </c>
@@ -19879,7 +19792,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="2"/>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>3838</v>
       </c>
@@ -19906,7 +19819,7 @@
       <c r="V385" s="2"/>
       <c r="W385" s="2"/>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>3867</v>
       </c>
@@ -19933,7 +19846,7 @@
       <c r="V386" s="2"/>
       <c r="W386" s="2"/>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>3879</v>
       </c>
@@ -19960,7 +19873,7 @@
       <c r="V387" s="2"/>
       <c r="W387" s="2"/>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>3917</v>
       </c>
@@ -19987,7 +19900,7 @@
       <c r="V388" s="2"/>
       <c r="W388" s="2"/>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>3919</v>
       </c>
@@ -20014,7 +19927,7 @@
       <c r="V389" s="2"/>
       <c r="W389" s="2"/>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>3922</v>
       </c>
@@ -20041,7 +19954,7 @@
       <c r="V390" s="2"/>
       <c r="W390" s="2"/>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>3934</v>
       </c>
@@ -20068,7 +19981,7 @@
       <c r="V391" s="2"/>
       <c r="W391" s="2"/>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>3943</v>
       </c>
@@ -20095,7 +20008,7 @@
       <c r="V392" s="2"/>
       <c r="W392" s="2"/>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>3957</v>
       </c>
@@ -20122,7 +20035,7 @@
       <c r="V393" s="2"/>
       <c r="W393" s="2"/>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>3976</v>
       </c>
@@ -20149,7 +20062,7 @@
       <c r="V394" s="2"/>
       <c r="W394" s="2"/>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>3979</v>
       </c>
@@ -20176,7 +20089,7 @@
       <c r="V395" s="2"/>
       <c r="W395" s="2"/>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>4016</v>
       </c>
@@ -20203,7 +20116,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="2"/>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>4057</v>
       </c>
@@ -20230,7 +20143,7 @@
       <c r="V397" s="2"/>
       <c r="W397" s="2"/>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>4076</v>
       </c>
@@ -20257,7 +20170,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="2"/>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>4079</v>
       </c>
@@ -20284,7 +20197,7 @@
       <c r="V399" s="2"/>
       <c r="W399" s="2"/>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>4121</v>
       </c>
@@ -20311,7 +20224,7 @@
       <c r="V400" s="2"/>
       <c r="W400" s="2"/>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>4178</v>
       </c>
@@ -20338,7 +20251,7 @@
       <c r="V401" s="2"/>
       <c r="W401" s="2"/>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>4194</v>
       </c>
@@ -20365,7 +20278,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="2"/>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>4206</v>
       </c>
@@ -20392,7 +20305,7 @@
       <c r="V403" s="2"/>
       <c r="W403" s="2"/>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -20417,7 +20330,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="2"/>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -20442,7 +20355,7 @@
       <c r="V405" s="2"/>
       <c r="W405" s="2"/>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -20467,7 +20380,7 @@
       <c r="V406" s="2"/>
       <c r="W406" s="2"/>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -20492,7 +20405,7 @@
       <c r="V407" s="2"/>
       <c r="W407" s="2"/>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -20517,7 +20430,7 @@
       <c r="V408" s="2"/>
       <c r="W408" s="2"/>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -20542,7 +20455,7 @@
       <c r="V409" s="2"/>
       <c r="W409" s="2"/>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -20567,7 +20480,7 @@
       <c r="V410" s="2"/>
       <c r="W410" s="2"/>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -20592,7 +20505,7 @@
       <c r="V411" s="2"/>
       <c r="W411" s="2"/>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -20617,7 +20530,7 @@
       <c r="V412" s="2"/>
       <c r="W412" s="2"/>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -20642,7 +20555,7 @@
       <c r="V413" s="2"/>
       <c r="W413" s="2"/>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -20667,7 +20580,7 @@
       <c r="V414" s="2"/>
       <c r="W414" s="2"/>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -20692,7 +20605,7 @@
       <c r="V415" s="2"/>
       <c r="W415" s="2"/>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -20717,7 +20630,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="2"/>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -20742,7 +20655,7 @@
       <c r="V417" s="2"/>
       <c r="W417" s="2"/>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -20767,7 +20680,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="2"/>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -20792,7 +20705,7 @@
       <c r="V419" s="2"/>
       <c r="W419" s="2"/>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -20817,7 +20730,7 @@
       <c r="V420" s="2"/>
       <c r="W420" s="2"/>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -20842,7 +20755,7 @@
       <c r="V421" s="2"/>
       <c r="W421" s="2"/>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -20867,7 +20780,7 @@
       <c r="V422" s="2"/>
       <c r="W422" s="2"/>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -20892,7 +20805,7 @@
       <c r="V423" s="2"/>
       <c r="W423" s="2"/>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -20917,7 +20830,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="2"/>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -20942,7 +20855,7 @@
       <c r="V425" s="2"/>
       <c r="W425" s="2"/>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -20967,7 +20880,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="2"/>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -20992,7 +20905,7 @@
       <c r="V427" s="2"/>
       <c r="W427" s="2"/>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -21017,7 +20930,7 @@
       <c r="V428" s="2"/>
       <c r="W428" s="2"/>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -21042,7 +20955,7 @@
       <c r="V429" s="2"/>
       <c r="W429" s="2"/>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -21067,7 +20980,7 @@
       <c r="V430" s="2"/>
       <c r="W430" s="2"/>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -21092,7 +21005,7 @@
       <c r="V431" s="2"/>
       <c r="W431" s="2"/>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -21117,7 +21030,7 @@
       <c r="V432" s="2"/>
       <c r="W432" s="2"/>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -21142,7 +21055,7 @@
       <c r="V433" s="2"/>
       <c r="W433" s="2"/>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -21167,7 +21080,7 @@
       <c r="V434" s="2"/>
       <c r="W434" s="2"/>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -21192,7 +21105,7 @@
       <c r="V435" s="2"/>
       <c r="W435" s="2"/>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -21217,7 +21130,7 @@
       <c r="V436" s="2"/>
       <c r="W436" s="2"/>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -21242,7 +21155,7 @@
       <c r="V437" s="2"/>
       <c r="W437" s="2"/>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -21267,7 +21180,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="2"/>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -21292,7 +21205,7 @@
       <c r="V439" s="2"/>
       <c r="W439" s="2"/>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -21317,7 +21230,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="2"/>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -21342,7 +21255,7 @@
       <c r="V441" s="2"/>
       <c r="W441" s="2"/>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -21367,7 +21280,7 @@
       <c r="V442" s="2"/>
       <c r="W442" s="2"/>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -21392,7 +21305,7 @@
       <c r="V443" s="2"/>
       <c r="W443" s="2"/>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -21417,7 +21330,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="2"/>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -21442,7 +21355,7 @@
       <c r="V445" s="2"/>
       <c r="W445" s="2"/>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -21467,7 +21380,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="2"/>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -21492,7 +21405,7 @@
       <c r="V447" s="2"/>
       <c r="W447" s="2"/>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -21517,7 +21430,7 @@
       <c r="V448" s="2"/>
       <c r="W448" s="2"/>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -21542,7 +21455,7 @@
       <c r="V449" s="2"/>
       <c r="W449" s="2"/>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -21567,7 +21480,7 @@
       <c r="V450" s="2"/>
       <c r="W450" s="2"/>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -21592,7 +21505,7 @@
       <c r="V451" s="2"/>
       <c r="W451" s="2"/>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -21617,7 +21530,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="2"/>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -21642,7 +21555,7 @@
       <c r="V453" s="2"/>
       <c r="W453" s="2"/>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -21667,7 +21580,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="2"/>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -21692,7 +21605,7 @@
       <c r="V455" s="2"/>
       <c r="W455" s="2"/>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -21717,7 +21630,7 @@
       <c r="V456" s="2"/>
       <c r="W456" s="2"/>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -21742,7 +21655,7 @@
       <c r="V457" s="2"/>
       <c r="W457" s="2"/>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -21767,7 +21680,7 @@
       <c r="V458" s="2"/>
       <c r="W458" s="2"/>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -21792,7 +21705,7 @@
       <c r="V459" s="2"/>
       <c r="W459" s="2"/>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -21817,7 +21730,7 @@
       <c r="V460" s="2"/>
       <c r="W460" s="2"/>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -21842,7 +21755,7 @@
       <c r="V461" s="2"/>
       <c r="W461" s="2"/>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -21867,7 +21780,7 @@
       <c r="V462" s="2"/>
       <c r="W462" s="2"/>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -21892,7 +21805,7 @@
       <c r="V463" s="2"/>
       <c r="W463" s="2"/>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -21917,7 +21830,7 @@
       <c r="V464" s="2"/>
       <c r="W464" s="2"/>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -21942,7 +21855,7 @@
       <c r="V465" s="2"/>
       <c r="W465" s="2"/>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -21967,7 +21880,7 @@
       <c r="V466" s="2"/>
       <c r="W466" s="2"/>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -21992,7 +21905,7 @@
       <c r="V467" s="2"/>
       <c r="W467" s="2"/>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -22017,7 +21930,7 @@
       <c r="V468" s="2"/>
       <c r="W468" s="2"/>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -22042,7 +21955,7 @@
       <c r="V469" s="2"/>
       <c r="W469" s="2"/>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -22067,7 +21980,7 @@
       <c r="V470" s="2"/>
       <c r="W470" s="2"/>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -22092,7 +22005,7 @@
       <c r="V471" s="2"/>
       <c r="W471" s="2"/>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -22117,7 +22030,7 @@
       <c r="V472" s="2"/>
       <c r="W472" s="2"/>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -22142,7 +22055,7 @@
       <c r="V473" s="2"/>
       <c r="W473" s="2"/>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -22167,7 +22080,7 @@
       <c r="V474" s="2"/>
       <c r="W474" s="2"/>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -22192,7 +22105,7 @@
       <c r="V475" s="2"/>
       <c r="W475" s="2"/>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -22217,7 +22130,7 @@
       <c r="V476" s="2"/>
       <c r="W476" s="2"/>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -22242,7 +22155,7 @@
       <c r="V477" s="2"/>
       <c r="W477" s="2"/>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -22267,7 +22180,7 @@
       <c r="V478" s="2"/>
       <c r="W478" s="2"/>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -22292,7 +22205,7 @@
       <c r="V479" s="2"/>
       <c r="W479" s="2"/>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -22317,7 +22230,7 @@
       <c r="V480" s="2"/>
       <c r="W480" s="2"/>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -22342,7 +22255,7 @@
       <c r="V481" s="2"/>
       <c r="W481" s="2"/>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -22367,7 +22280,7 @@
       <c r="V482" s="2"/>
       <c r="W482" s="2"/>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -22392,7 +22305,7 @@
       <c r="V483" s="2"/>
       <c r="W483" s="2"/>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -22417,7 +22330,7 @@
       <c r="V484" s="2"/>
       <c r="W484" s="2"/>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -22442,7 +22355,7 @@
       <c r="V485" s="2"/>
       <c r="W485" s="2"/>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -22467,7 +22380,7 @@
       <c r="V486" s="2"/>
       <c r="W486" s="2"/>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -22492,7 +22405,7 @@
       <c r="V487" s="2"/>
       <c r="W487" s="2"/>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -22517,7 +22430,7 @@
       <c r="V488" s="2"/>
       <c r="W488" s="2"/>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -22542,7 +22455,7 @@
       <c r="V489" s="2"/>
       <c r="W489" s="2"/>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -22567,7 +22480,7 @@
       <c r="V490" s="2"/>
       <c r="W490" s="2"/>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -22592,7 +22505,7 @@
       <c r="V491" s="2"/>
       <c r="W491" s="2"/>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -22617,7 +22530,7 @@
       <c r="V492" s="2"/>
       <c r="W492" s="2"/>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -22642,7 +22555,7 @@
       <c r="V493" s="2"/>
       <c r="W493" s="2"/>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -22667,7 +22580,7 @@
       <c r="V494" s="2"/>
       <c r="W494" s="2"/>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -22692,7 +22605,7 @@
       <c r="V495" s="2"/>
       <c r="W495" s="2"/>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -22717,7 +22630,7 @@
       <c r="V496" s="2"/>
       <c r="W496" s="2"/>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -22742,7 +22655,7 @@
       <c r="V497" s="2"/>
       <c r="W497" s="2"/>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -22767,7 +22680,7 @@
       <c r="V498" s="2"/>
       <c r="W498" s="2"/>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -22792,7 +22705,7 @@
       <c r="V499" s="2"/>
       <c r="W499" s="2"/>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -22817,7 +22730,7 @@
       <c r="V500" s="2"/>
       <c r="W500" s="2"/>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -22842,7 +22755,7 @@
       <c r="V501" s="2"/>
       <c r="W501" s="2"/>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -22867,7 +22780,7 @@
       <c r="V502" s="2"/>
       <c r="W502" s="2"/>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -22892,7 +22805,7 @@
       <c r="V503" s="2"/>
       <c r="W503" s="2"/>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -22917,7 +22830,7 @@
       <c r="V504" s="2"/>
       <c r="W504" s="2"/>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -22942,7 +22855,7 @@
       <c r="V505" s="2"/>
       <c r="W505" s="2"/>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -22967,7 +22880,7 @@
       <c r="V506" s="2"/>
       <c r="W506" s="2"/>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -22992,7 +22905,7 @@
       <c r="V507" s="2"/>
       <c r="W507" s="2"/>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -23017,7 +22930,7 @@
       <c r="V508" s="2"/>
       <c r="W508" s="2"/>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -23042,7 +22955,7 @@
       <c r="V509" s="2"/>
       <c r="W509" s="2"/>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -23067,7 +22980,7 @@
       <c r="V510" s="2"/>
       <c r="W510" s="2"/>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -23092,7 +23005,7 @@
       <c r="V511" s="2"/>
       <c r="W511" s="2"/>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -23117,7 +23030,7 @@
       <c r="V512" s="2"/>
       <c r="W512" s="2"/>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -23142,7 +23055,7 @@
       <c r="V513" s="2"/>
       <c r="W513" s="2"/>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -23167,7 +23080,7 @@
       <c r="V514" s="2"/>
       <c r="W514" s="2"/>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -23192,7 +23105,7 @@
       <c r="V515" s="2"/>
       <c r="W515" s="2"/>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -23217,7 +23130,7 @@
       <c r="V516" s="2"/>
       <c r="W516" s="2"/>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -23242,7 +23155,7 @@
       <c r="V517" s="2"/>
       <c r="W517" s="2"/>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -23267,7 +23180,7 @@
       <c r="V518" s="2"/>
       <c r="W518" s="2"/>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -23292,7 +23205,7 @@
       <c r="V519" s="2"/>
       <c r="W519" s="2"/>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -23317,7 +23230,7 @@
       <c r="V520" s="2"/>
       <c r="W520" s="2"/>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -23342,7 +23255,7 @@
       <c r="V521" s="2"/>
       <c r="W521" s="2"/>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -23367,7 +23280,7 @@
       <c r="V522" s="2"/>
       <c r="W522" s="2"/>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -23392,7 +23305,7 @@
       <c r="V523" s="2"/>
       <c r="W523" s="2"/>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -23417,7 +23330,7 @@
       <c r="V524" s="2"/>
       <c r="W524" s="2"/>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -23442,7 +23355,7 @@
       <c r="V525" s="2"/>
       <c r="W525" s="2"/>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -23467,7 +23380,7 @@
       <c r="V526" s="2"/>
       <c r="W526" s="2"/>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -23492,7 +23405,7 @@
       <c r="V527" s="2"/>
       <c r="W527" s="2"/>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -23517,7 +23430,7 @@
       <c r="V528" s="2"/>
       <c r="W528" s="2"/>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -23542,7 +23455,7 @@
       <c r="V529" s="2"/>
       <c r="W529" s="2"/>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -23567,7 +23480,7 @@
       <c r="V530" s="2"/>
       <c r="W530" s="2"/>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -23592,7 +23505,7 @@
       <c r="V531" s="2"/>
       <c r="W531" s="2"/>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -23617,7 +23530,7 @@
       <c r="V532" s="2"/>
       <c r="W532" s="2"/>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -23642,7 +23555,7 @@
       <c r="V533" s="2"/>
       <c r="W533" s="2"/>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -23667,7 +23580,7 @@
       <c r="V534" s="2"/>
       <c r="W534" s="2"/>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -23692,7 +23605,7 @@
       <c r="V535" s="2"/>
       <c r="W535" s="2"/>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -23717,7 +23630,7 @@
       <c r="V536" s="2"/>
       <c r="W536" s="2"/>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -23742,7 +23655,7 @@
       <c r="V537" s="2"/>
       <c r="W537" s="2"/>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -23767,7 +23680,7 @@
       <c r="V538" s="2"/>
       <c r="W538" s="2"/>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -23792,7 +23705,7 @@
       <c r="V539" s="2"/>
       <c r="W539" s="2"/>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -23817,7 +23730,7 @@
       <c r="V540" s="2"/>
       <c r="W540" s="2"/>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -23842,7 +23755,7 @@
       <c r="V541" s="2"/>
       <c r="W541" s="2"/>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -23867,7 +23780,7 @@
       <c r="V542" s="2"/>
       <c r="W542" s="2"/>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -23892,7 +23805,7 @@
       <c r="V543" s="2"/>
       <c r="W543" s="2"/>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -23917,7 +23830,7 @@
       <c r="V544" s="2"/>
       <c r="W544" s="2"/>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -23942,7 +23855,7 @@
       <c r="V545" s="2"/>
       <c r="W545" s="2"/>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -23967,7 +23880,7 @@
       <c r="V546" s="2"/>
       <c r="W546" s="2"/>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -23992,7 +23905,7 @@
       <c r="V547" s="2"/>
       <c r="W547" s="2"/>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -24017,7 +23930,7 @@
       <c r="V548" s="2"/>
       <c r="W548" s="2"/>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -24042,7 +23955,7 @@
       <c r="V549" s="2"/>
       <c r="W549" s="2"/>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -24067,7 +23980,7 @@
       <c r="V550" s="2"/>
       <c r="W550" s="2"/>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -24092,7 +24005,7 @@
       <c r="V551" s="2"/>
       <c r="W551" s="2"/>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -24117,7 +24030,7 @@
       <c r="V552" s="2"/>
       <c r="W552" s="2"/>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -24142,7 +24055,7 @@
       <c r="V553" s="2"/>
       <c r="W553" s="2"/>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
